--- a/results.xlsx
+++ b/results.xlsx
@@ -947,19 +947,19 @@
         <v>16</v>
       </c>
       <c r="E2">
-        <v>205.855677877166</v>
+        <v>115.8851725289421</v>
       </c>
       <c r="F2">
-        <v>226.1794598521708</v>
+        <v>153.425499936588</v>
       </c>
       <c r="G2">
-        <v>145.4054591536342</v>
+        <v>89.28801279459888</v>
       </c>
       <c r="H2">
         <v>125.6662542793247</v>
       </c>
       <c r="I2">
-        <v>224.8401816426487</v>
+        <v>165.8382820437682</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -970,19 +970,19 @@
         <v>17</v>
       </c>
       <c r="E3">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="F3">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="G3">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="H3">
         <v>49</v>
       </c>
       <c r="I3">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1050,7 +1050,7 @@
         <v>190.5313601335097</v>
       </c>
       <c r="F6">
-        <v>202.1071842214068</v>
+        <v>190.4910911310263</v>
       </c>
       <c r="G6">
         <v>191.0525215273835</v>
@@ -1073,7 +1073,7 @@
         <v>54</v>
       </c>
       <c r="F7">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="G7">
         <v>53</v>
@@ -13064,7 +13064,7 @@
         <v>154.4587149505624</v>
       </c>
       <c r="F2">
-        <v>148.7436413636917</v>
+        <v>141.8950338743898</v>
       </c>
       <c r="G2">
         <v>171.9345337986524</v>
@@ -13084,7 +13084,7 @@
         <v>55</v>
       </c>
       <c r="F3">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="G3">
         <v>55</v>
@@ -22987,10 +22987,10 @@
         <v>32.7423207690662</v>
       </c>
       <c r="G2">
-        <v>69.1968596600932</v>
+        <v>64.69854920826236</v>
       </c>
       <c r="H2">
-        <v>58.27136665463222</v>
+        <v>57.60311579586719</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -23007,10 +23007,10 @@
         <v>48</v>
       </c>
       <c r="G3">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>124</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9">
